--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1399801.14031906</v>
+        <v>1395789.337586965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518388</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140339</v>
+        <v>6432656.960140337</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.4591815914157</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>195.5493423488051</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.94217408066646</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3339849899809</v>
+        <v>267.6988762855053</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.837347402761079</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>83.83372685745378</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>79.76498949440901</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>30.95842848046594</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>97.88748774557843</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>121.908867201668</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>26.51105219961456</v>
       </c>
       <c r="G19" t="n">
-        <v>9.267814325145046</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>84.93520552640393</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>9.596130097099904</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>33.00099667026362</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>33.65440423673216</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>326.6111023077346</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>196.4772724899796</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.18777989700167</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>58.44597281730683</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
-        <v>71.96559361603957</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.48994447064817</v>
+        <v>6.48994447064952</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899809</v>
+        <v>277.3339849899801</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,19 +2794,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>265.8211285759585</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>8.186454565729463</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.48994447064817</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>244.646583117955</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3043,10 +3043,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>354.7715487518855</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.48994447064817</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899809</v>
+        <v>277.3339849899806</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>335.1504948738975</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>170.8501712554198</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>99.95530421387554</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>126.545868946948</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>118.6386197839303</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>341.2208481213481</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>105.0084941463132</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -3717,13 +3717,13 @@
         <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>110.2961045339478</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>139.5677614497825</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>334.7127197404676</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>97.61172293906195</v>
       </c>
       <c r="G43" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>40.25642765718283</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>300.7718619684557</v>
+        <v>104.5708450729066</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>113.9353216629393</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>184.7173755973105</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>722.3996354988195</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="C11" t="n">
-        <v>722.3996354988195</v>
+        <v>898.3607637883456</v>
       </c>
       <c r="D11" t="n">
-        <v>722.3996354988195</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E11" t="n">
-        <v>722.3996354988195</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H11" t="n">
         <v>42.75541829589047</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5074,19 +5074,19 @@
         <v>2079.142258348449</v>
       </c>
       <c r="U11" t="n">
-        <v>1881.617670117333</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V11" t="n">
-        <v>1524.128255243582</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W11" t="n">
-        <v>1127.736905543929</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="X11" t="n">
-        <v>1127.736905543929</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="Y11" t="n">
-        <v>722.3996354988195</v>
+        <v>1325.261493775045</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.75541829589047</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J12" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.40711322129</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="C13" t="n">
-        <v>590.434550100206</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1177772269767</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="E13" t="n">
-        <v>427.1177772269767</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F13" t="n">
-        <v>255.2560030015372</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G13" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589047</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
         <v>42.75541829589047</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9451069259082</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>458.9956455541964</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>944.8790293374093</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M13" t="n">
-        <v>1473.977330749054</v>
+        <v>1130.27825236505</v>
       </c>
       <c r="N13" t="n">
-        <v>1588.472585890574</v>
+        <v>1437.099088512675</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.326552563498</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U13" t="n">
-        <v>1703.19121418978</v>
+        <v>1466.875759853446</v>
       </c>
       <c r="V13" t="n">
-        <v>1421.479746797809</v>
+        <v>1185.164292461475</v>
       </c>
       <c r="W13" t="n">
-        <v>1421.479746797809</v>
+        <v>910.3118886339881</v>
       </c>
       <c r="X13" t="n">
-        <v>1178.915850243614</v>
+        <v>667.7479920797932</v>
       </c>
       <c r="Y13" t="n">
-        <v>952.5730819333558</v>
+        <v>441.4052237695352</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>892.9487690975901</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C14" t="n">
-        <v>466.0480391108902</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D14" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E14" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F14" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103585</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
         <v>222.2360596072042</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610001</v>
+        <v>437.069171561</v>
       </c>
       <c r="L14" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5296,34 +5296,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2129.854402266482</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2129.854402266482</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U14" t="n">
-        <v>2129.854402266482</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V14" t="n">
-        <v>2129.854402266482</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W14" t="n">
-        <v>2129.854402266482</v>
+        <v>1212.417437723175</v>
       </c>
       <c r="X14" t="n">
-        <v>1718.13440343423</v>
+        <v>1127.736905543929</v>
       </c>
       <c r="Y14" t="n">
-        <v>1312.79713338912</v>
+        <v>722.3996354988195</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059645</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283643</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M15" t="n">
         <v>1002.337654088804</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>716.9689863524006</v>
+        <v>835.2365489852334</v>
       </c>
       <c r="C16" t="n">
-        <v>544.9964232313166</v>
+        <v>835.2365489852334</v>
       </c>
       <c r="D16" t="n">
-        <v>381.6796503580873</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E16" t="n">
-        <v>381.6796503580873</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F16" t="n">
-        <v>209.8178761326477</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
-        <v>209.8178761326477</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
-        <v>74.02655817514901</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K16" t="n">
-        <v>166.4811349991142</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L16" t="n">
-        <v>481.8999867656338</v>
+        <v>546.8461064955291</v>
       </c>
       <c r="M16" t="n">
-        <v>1010.998288177278</v>
+        <v>1075.944407907174</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.526466160679</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O16" t="n">
-        <v>2003.682813232012</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T16" t="n">
-        <v>1743.834164657643</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U16" t="n">
-        <v>1463.698826283925</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V16" t="n">
-        <v>1181.987358891953</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W16" t="n">
-        <v>907.1349550644663</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X16" t="n">
-        <v>907.1349550644663</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="Y16" t="n">
-        <v>907.1349550644663</v>
+        <v>835.2365489852334</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.0677541164978</v>
+        <v>743.3603749314975</v>
       </c>
       <c r="C17" t="n">
-        <v>320.0677541164978</v>
+        <v>743.3603749314975</v>
       </c>
       <c r="D17" t="n">
         <v>320.0677541164978</v>
@@ -5509,19 +5509,19 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072047</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M17" t="n">
         <v>1017.95803136565</v>
@@ -5533,34 +5533,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U17" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V17" t="n">
-        <v>1251.319372549078</v>
+        <v>1980.26600810039</v>
       </c>
       <c r="W17" t="n">
-        <v>854.9280228494254</v>
+        <v>1980.26600810039</v>
       </c>
       <c r="X17" t="n">
-        <v>443.2080240171726</v>
+        <v>1568.546009268137</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.0677541164978</v>
+        <v>1163.208739223028</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I18" t="n">
-        <v>86.44169614186401</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J18" t="n">
-        <v>165.4810209821281</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K18" t="n">
-        <v>313.2719753503764</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L18" t="n">
-        <v>519.5225649727762</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M18" t="n">
-        <v>896.8821538038975</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O18" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P18" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q18" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.9511842536717</v>
+        <v>241.5068220226457</v>
       </c>
       <c r="C19" t="n">
-        <v>223.9786211325877</v>
+        <v>69.53425890156174</v>
       </c>
       <c r="D19" t="n">
-        <v>223.9786211325877</v>
+        <v>69.53425890156174</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9786211325877</v>
+        <v>69.53425890156174</v>
       </c>
       <c r="F19" t="n">
-        <v>52.1168469071481</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J19" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613572</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L19" t="n">
-        <v>601.1799509534052</v>
+        <v>899.6471278963492</v>
       </c>
       <c r="M19" t="n">
-        <v>1130.27825236505</v>
+        <v>1428.745429307994</v>
       </c>
       <c r="N19" t="n">
-        <v>1244.77350750657</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
-        <v>2131.215415329222</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T19" t="n">
-        <v>1891.723027423367</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U19" t="n">
-        <v>1611.587689049648</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V19" t="n">
-        <v>1329.876221657677</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W19" t="n">
-        <v>1055.02381783019</v>
+        <v>900.5794555991642</v>
       </c>
       <c r="X19" t="n">
-        <v>812.4599212759953</v>
+        <v>658.0155590449693</v>
       </c>
       <c r="Y19" t="n">
-        <v>586.1171529657373</v>
+        <v>431.6727907347114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1659.293894056919</v>
+        <v>891.17222092149</v>
       </c>
       <c r="C20" t="n">
-        <v>1659.293894056919</v>
+        <v>891.17222092149</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.500757161562</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.523817309419</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H20" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
         <v>1332.070421635641</v>
@@ -5779,25 +5779,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.14225834845</v>
+        <v>2128.077854090383</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.14225834845</v>
+        <v>2128.077854090383</v>
       </c>
       <c r="U20" t="n">
-        <v>2079.14225834845</v>
+        <v>2128.077854090383</v>
       </c>
       <c r="V20" t="n">
-        <v>2079.14225834845</v>
+        <v>2128.077854090383</v>
       </c>
       <c r="W20" t="n">
-        <v>2079.14225834845</v>
+        <v>2128.077854090383</v>
       </c>
       <c r="X20" t="n">
-        <v>2079.14225834845</v>
+        <v>1716.35785525813</v>
       </c>
       <c r="Y20" t="n">
-        <v>2079.14225834845</v>
+        <v>1311.02058521302</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J21" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>715.2631459118221</v>
+        <v>248.0623214879478</v>
       </c>
       <c r="C22" t="n">
-        <v>543.2905827907381</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="D22" t="n">
-        <v>379.9738099175088</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="E22" t="n">
-        <v>379.9738099175088</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="F22" t="n">
-        <v>208.1120356920692</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G22" t="n">
         <v>42.75541829589048</v>
@@ -5910,25 +5910,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473351</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L22" t="n">
-        <v>353.897341839383</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M22" t="n">
-        <v>882.9956432510278</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N22" t="n">
-        <v>1395.523821234428</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O22" t="n">
-        <v>1875.680168305762</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P22" t="n">
-        <v>1960.249713953908</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
         <v>2137.770914794524</v>
@@ -5949,13 +5949,13 @@
         <v>1181.987358891953</v>
       </c>
       <c r="W22" t="n">
-        <v>1147.993011178082</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X22" t="n">
-        <v>905.4291146238877</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.4291146238877</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1189.407938699469</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C23" t="n">
-        <v>762.5072087127692</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D23" t="n">
-        <v>762.5072087127692</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E23" t="n">
-        <v>762.5072087127692</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>631.2805511005022</v>
+        <v>617.140905280281</v>
       </c>
       <c r="K23" t="n">
-        <v>846.1136630542981</v>
+        <v>831.9740172340768</v>
       </c>
       <c r="L23" t="n">
-        <v>1118.62967157813</v>
+        <v>1575.348819368406</v>
       </c>
       <c r="M23" t="n">
-        <v>1427.002522858947</v>
+        <v>1883.721670649223</v>
       </c>
       <c r="N23" t="n">
-        <v>1741.114913128938</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.555356129462</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P23" t="n">
-        <v>2281.247049470424</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2914.642355556174</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="U23" t="n">
-        <v>2732.766761627731</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="V23" t="n">
-        <v>2732.766761627731</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="W23" t="n">
-        <v>2336.375411928078</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="X23" t="n">
-        <v>1924.655413095826</v>
+        <v>2181.213527837534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1519.318143050716</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
         <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>182.7962937677995</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K24" t="n">
-        <v>330.5872481360478</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L24" t="n">
-        <v>536.8378377584476</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M24" t="n">
-        <v>780.668038713949</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1033.293104348145</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1260.784968371004</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1440.225622021826</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
         <v>1685.594465388265</v>
@@ -6126,43 +6126,43 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851354</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119061</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647596</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
-        <v>433.91114523932</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431407</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
-        <v>132.763209885642</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266567</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098697</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
         <v>2802.642500785833</v>
@@ -6171,7 +6171,7 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
         <v>2842.53469238177</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>903.6343932556357</v>
+        <v>1187.576377703869</v>
       </c>
       <c r="C26" t="n">
-        <v>476.7336632689358</v>
+        <v>760.6756477171691</v>
       </c>
       <c r="D26" t="n">
-        <v>476.7336632689358</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="E26" t="n">
-        <v>476.7336632689358</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="F26" t="n">
-        <v>476.7336632689358</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G26" t="n">
-        <v>74.40178188661412</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I26" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466719</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>726.9004528705038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1349.385694421312</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2000.425596557002</v>
+        <v>2340.035845641987</v>
       </c>
       <c r="P26" t="n">
-        <v>2246.117289897964</v>
+        <v>2585.727538982949</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>2944.905897632022</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2732.766761627732</v>
       </c>
       <c r="U26" t="n">
         <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2117.083011832651</v>
+        <v>2415.536090527305</v>
       </c>
       <c r="W26" t="n">
-        <v>1720.691662132998</v>
+        <v>2019.144740827652</v>
       </c>
       <c r="X26" t="n">
-        <v>1308.971663300745</v>
+        <v>1607.424741995399</v>
       </c>
       <c r="Y26" t="n">
-        <v>903.6343932556357</v>
+        <v>1607.424741995399</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G27" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H27" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I27" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6381,7 +6381,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J28" t="n">
         <v>179.9501949187404</v>
@@ -6393,28 +6393,28 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509646</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493046</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.31675056438</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785832</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q28" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475913</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>754.5538214144706</v>
+        <v>2163.697044928325</v>
       </c>
       <c r="C29" t="n">
-        <v>754.5538214144706</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D29" t="n">
-        <v>754.5538214144706</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E29" t="n">
-        <v>328.5768815623281</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F29" t="n">
-        <v>328.5768815623281</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H29" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I29" t="n">
         <v>101.7102154067076</v>
@@ -6466,49 +6466,49 @@
         <v>239.551332392876</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466719</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L29" t="n">
-        <v>993.847749226316</v>
+        <v>726.9004528705036</v>
       </c>
       <c r="M29" t="n">
-        <v>1302.220600507133</v>
+        <v>1035.273304151321</v>
       </c>
       <c r="N29" t="n">
-        <v>2045.595402641462</v>
+        <v>1349.385694421312</v>
       </c>
       <c r="O29" t="n">
-        <v>2340.035845641986</v>
+        <v>1643.826137421835</v>
       </c>
       <c r="P29" t="n">
-        <v>2585.727538982948</v>
+        <v>2387.200939556164</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.340219156767</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="V29" t="n">
-        <v>2387.850804283016</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.459454583363</v>
+        <v>2995.265408052108</v>
       </c>
       <c r="X29" t="n">
-        <v>1579.73945575111</v>
+        <v>2583.545409219855</v>
       </c>
       <c r="Y29" t="n">
-        <v>1174.402185706001</v>
+        <v>2583.545409219855</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G30" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H30" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I30" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>569.5721362965738</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140357</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M30" t="n">
-        <v>757.2107328695372</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503733</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526592</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P30" t="n">
         <v>1679.210510182351</v>
@@ -6618,34 +6618,34 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I31" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>431.0790168988077</v>
+        <v>397.237302626658</v>
       </c>
       <c r="L31" t="n">
-        <v>916.9624006820206</v>
+        <v>883.1206864098709</v>
       </c>
       <c r="M31" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509646</v>
       </c>
       <c r="N31" t="n">
-        <v>1959.002117765196</v>
+        <v>1925.160403493046</v>
       </c>
       <c r="O31" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.31675056438</v>
       </c>
       <c r="P31" t="n">
-        <v>2836.484215057984</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q31" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1837.93379067244</v>
+        <v>2119.720263295383</v>
       </c>
       <c r="C32" t="n">
-        <v>1837.93379067244</v>
+        <v>1692.819533308683</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.816029947233</v>
+        <v>1269.526912493684</v>
       </c>
       <c r="E32" t="n">
-        <v>1164.839090095091</v>
+        <v>843.5499726415411</v>
       </c>
       <c r="F32" t="n">
-        <v>739.714908284491</v>
+        <v>418.4257908309413</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H32" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>631.2805511005022</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K32" t="n">
-        <v>846.1136630542981</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L32" t="n">
-        <v>1118.62967157813</v>
+        <v>726.9004528705036</v>
       </c>
       <c r="M32" t="n">
-        <v>1427.002522858947</v>
+        <v>1035.273304151321</v>
       </c>
       <c r="N32" t="n">
-        <v>1741.114913128938</v>
+        <v>1349.385694421312</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.555356129462</v>
+        <v>1842.352736848619</v>
       </c>
       <c r="P32" t="n">
-        <v>2281.247049470424</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078096</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078096</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>3003.534554078096</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>2646.045139204346</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W32" t="n">
-        <v>2249.653789504693</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="X32" t="n">
-        <v>1837.93379067244</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="Y32" t="n">
-        <v>1837.93379067244</v>
+        <v>2539.568627586913</v>
       </c>
     </row>
     <row r="33">
@@ -6773,19 +6773,19 @@
         <v>103.0748183734007</v>
       </c>
       <c r="H33" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J33" t="n">
-        <v>421.7811819283253</v>
+        <v>421.7811819283256</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965736</v>
+        <v>569.5721362965738</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189734</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M33" t="n">
         <v>1019.652926874475</v>
@@ -6855,31 +6855,31 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I34" t="n">
-        <v>60.07069108156193</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820206</v>
+        <v>883.12068640987</v>
       </c>
       <c r="M34" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N34" t="n">
-        <v>1959.002117765196</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O34" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P34" t="n">
-        <v>2836.484215057984</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q34" t="n">
-        <v>3003.534554078096</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="R34" t="n">
         <v>2996.979054612795</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1467.856581040942</v>
+        <v>783.6231530861894</v>
       </c>
       <c r="C35" t="n">
-        <v>1040.955851054242</v>
+        <v>783.6231530861894</v>
       </c>
       <c r="D35" t="n">
-        <v>617.6632302392422</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E35" t="n">
-        <v>617.6632302392422</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F35" t="n">
         <v>445.0872996782122</v>
@@ -6934,16 +6934,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K35" t="n">
         <v>437.0691715610008</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M35" t="n">
         <v>1017.95803136565</v>
@@ -6955,7 +6955,7 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
         <v>2048.8787162726</v>
@@ -6964,25 +6964,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>1879.576579873195</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V35" t="n">
-        <v>1879.576579873195</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W35" t="n">
-        <v>1879.576579873195</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X35" t="n">
-        <v>1467.856581040942</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y35" t="n">
-        <v>1467.856581040942</v>
+        <v>1203.471517377719</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386.589755642414</v>
+        <v>918.0934142951081</v>
       </c>
       <c r="C37" t="n">
-        <v>214.6171925213301</v>
+        <v>746.1208511740241</v>
       </c>
       <c r="D37" t="n">
-        <v>214.6171925213301</v>
+        <v>582.8040783007948</v>
       </c>
       <c r="E37" t="n">
-        <v>214.6171925213301</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F37" t="n">
-        <v>42.75541829589048</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589048</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>601.1799509534052</v>
+        <v>481.8999867656339</v>
       </c>
       <c r="M37" t="n">
-        <v>1130.27825236505</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N37" t="n">
-        <v>1642.80643034845</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O37" t="n">
-        <v>1745.26045311658</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T37" t="n">
-        <v>1882.361598812109</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U37" t="n">
-        <v>1602.226260438391</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="V37" t="n">
-        <v>1320.51479304642</v>
+        <v>1609.454555144919</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.662389218933</v>
+        <v>1334.602151317432</v>
       </c>
       <c r="X37" t="n">
-        <v>803.0984926647377</v>
+        <v>1334.602151317432</v>
       </c>
       <c r="Y37" t="n">
-        <v>576.7557243544798</v>
+        <v>1108.259383007174</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>842.2366251795572</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C38" t="n">
-        <v>842.2366251795572</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D38" t="n">
-        <v>842.2366251795572</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E38" t="n">
-        <v>842.2366251795572</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F38" t="n">
         <v>722.3996354988195</v>
@@ -7171,19 +7171,19 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
@@ -7207,19 +7207,19 @@
         <v>2079.14225834845</v>
       </c>
       <c r="U38" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V38" t="n">
-        <v>2079.14225834845</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W38" t="n">
-        <v>2079.14225834845</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="X38" t="n">
-        <v>1667.422259516197</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="Y38" t="n">
-        <v>1262.084989471087</v>
+        <v>722.3996354988195</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J39" t="n">
-        <v>404.465909142654</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109022</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333021</v>
+        <v>496.0652591283641</v>
       </c>
       <c r="M39" t="n">
         <v>1002.337654088804</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>917.9826253994637</v>
+        <v>551.9463730385928</v>
       </c>
       <c r="C40" t="n">
-        <v>917.9826253994637</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="D40" t="n">
-        <v>754.6658525262344</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="E40" t="n">
-        <v>588.4576466790879</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F40" t="n">
-        <v>416.5958724536483</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H40" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I40" t="n">
         <v>42.75541829589048</v>
@@ -7338,16 +7338,16 @@
         <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>708.228813690938</v>
+        <v>601.1799509534051</v>
       </c>
       <c r="M40" t="n">
-        <v>1237.327115102583</v>
+        <v>1130.27825236505</v>
       </c>
       <c r="N40" t="n">
-        <v>1749.855293085983</v>
+        <v>1437.099088512676</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P40" t="n">
         <v>1936.87886150226</v>
@@ -7356,28 +7356,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T40" t="n">
-        <v>1743.834164657643</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U40" t="n">
-        <v>1743.834164657643</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V40" t="n">
-        <v>1462.122697265671</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W40" t="n">
-        <v>1350.712490665724</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X40" t="n">
-        <v>1108.148594111529</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y40" t="n">
-        <v>1108.148594111529</v>
+        <v>658.0155590449698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2137.770914794524</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="C41" t="n">
-        <v>1996.793377976562</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.500757161562</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E41" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F41" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.3949426210369</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072053</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P41" t="n">
         <v>1872.202557977127</v>
@@ -7438,25 +7438,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V41" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.770914794524</v>
+        <v>1212.417437723176</v>
       </c>
       <c r="X41" t="n">
-        <v>2137.770914794524</v>
+        <v>800.6974388909232</v>
       </c>
       <c r="Y41" t="n">
-        <v>2137.770914794524</v>
+        <v>462.6037825874205</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>404.4659091426541</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109023</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333022</v>
+        <v>519.522564972776</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282773</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1344099985472</v>
+        <v>641.999071624829</v>
       </c>
       <c r="C43" t="n">
-        <v>750.1618468774632</v>
+        <v>470.0265085037449</v>
       </c>
       <c r="D43" t="n">
-        <v>586.8450740042339</v>
+        <v>306.7097356305156</v>
       </c>
       <c r="E43" t="n">
-        <v>420.6368681570874</v>
+        <v>306.7097356305156</v>
       </c>
       <c r="F43" t="n">
-        <v>248.7750939316478</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G43" t="n">
-        <v>83.4184765354691</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H43" t="n">
         <v>42.75541829589048</v>
@@ -7569,16 +7569,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>244.4028516473351</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>730.286235430548</v>
+        <v>481.8999867656339</v>
       </c>
       <c r="M43" t="n">
-        <v>1259.384536842193</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N43" t="n">
         <v>1523.526466160679</v>
@@ -7602,19 +7602,19 @@
         <v>2137.770914794524</v>
       </c>
       <c r="U43" t="n">
-        <v>2137.770914794524</v>
+        <v>1857.635576420806</v>
       </c>
       <c r="V43" t="n">
-        <v>1856.059447402553</v>
+        <v>1575.924109028834</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.207043575066</v>
+        <v>1301.071705201347</v>
       </c>
       <c r="X43" t="n">
-        <v>1338.643147020871</v>
+        <v>1058.507808647153</v>
       </c>
       <c r="Y43" t="n">
-        <v>1112.300378710613</v>
+        <v>832.1650403368947</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>346.5653798801892</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="C44" t="n">
-        <v>346.5653798801892</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="D44" t="n">
-        <v>346.5653798801892</v>
+        <v>828.0267517340787</v>
       </c>
       <c r="E44" t="n">
-        <v>346.5653798801892</v>
+        <v>828.0267517340787</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J44" t="n">
         <v>222.2360596072047</v>
@@ -7663,7 +7663,7 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
         <v>1872.202557977127</v>
@@ -7675,25 +7675,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U44" t="n">
-        <v>1925.631778790233</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.142363916482</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W44" t="n">
-        <v>1171.751014216829</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X44" t="n">
-        <v>1171.751014216829</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y44" t="n">
-        <v>766.4137441717193</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>62.98439029745215</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426541</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109023</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333022</v>
+        <v>496.0652591283641</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838655</v>
       </c>
       <c r="N45" t="n">
         <v>1254.962719722999</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.262669716467</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C46" t="n">
-        <v>845.2901065953833</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="D46" t="n">
-        <v>681.9733337221541</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="E46" t="n">
-        <v>515.7651278750076</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="F46" t="n">
-        <v>343.903353649568</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="G46" t="n">
-        <v>178.5467362533892</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
         <v>42.75541829589048</v>
@@ -7812,16 +7812,16 @@
         <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>708.2288136909382</v>
+        <v>793.5055319595111</v>
       </c>
       <c r="M46" t="n">
-        <v>1237.327115102583</v>
+        <v>1322.603833371156</v>
       </c>
       <c r="N46" t="n">
-        <v>1749.855293085983</v>
+        <v>1437.099088512676</v>
       </c>
       <c r="O46" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
         <v>1936.87886150226</v>
@@ -7836,22 +7836,22 @@
         <v>2137.770914794524</v>
       </c>
       <c r="T46" t="n">
-        <v>2137.770914794524</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U46" t="n">
-        <v>1951.187707120473</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V46" t="n">
-        <v>1951.187707120473</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W46" t="n">
-        <v>1676.335303292986</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.771406738791</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y46" t="n">
-        <v>1207.428638428533</v>
+        <v>592.672652431039</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.68878933440414</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>194.2682636425303</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>208.0044056307794</v>
+        <v>23.82613352560085</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8781695713332</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>361.6041474892604</v>
       </c>
       <c r="O19" t="n">
-        <v>194.2682636425309</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575128</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M22" t="n">
         <v>417.2951947219103</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.295600935607</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>381.4036089771768</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>475.6149430409063</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.3324725154296</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.8781695713333</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>215.5968634766375</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898353</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>360.201473873905</v>
+        <v>307.5560500126515</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.820252063082</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>203.0230036898338</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10117,22 +10117,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>269.6437336927395</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.5983958225631</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>502.7102109023911</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>200.5319186129136</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>136.8880587814662</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.7189728340884</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>200.5319186129129</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>502.7102109023911</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.3324725154292</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422157</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.7189728340884</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M37" t="n">
         <v>417.2951947219103</v>
@@ -10758,13 +10758,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>108.1301643813463</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>108.1301643813463</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>194.2682636425313</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M43" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N43" t="n">
-        <v>151.1582567444103</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>108.1301643813465</v>
+        <v>194.2682636425314</v>
       </c>
       <c r="M46" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>414.600513015434</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>60.06304922331097</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>87.76087714155049</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>9.63510870447567</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.20502247885256</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>323.7690719864764</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>81.91861565008799</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.00716513557359</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>256.0270329794346</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>279.3750301429906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.6321042835706</v>
       </c>
       <c r="G19" t="n">
-        <v>154.4352368970719</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>334.1244890804458</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>48.44623978451376</v>
       </c>
       <c r="T20" t="n">
         <v>210.0177446442482</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>137.1421598129216</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>238.44947555248</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.03877834088013</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>195.950163712677</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24457,10 +24457,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>260.3514325653996</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>295.4685479077062</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>132.4874339925398</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>384.2409816369271</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>174.4131114888947</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>43.5370138166129</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>83.90919973295223</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>250.022768737074</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>137.1421598129215</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>152.3484837711034</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25402,7 +25402,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>302.2343202085634</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>66.38195072258213</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>83.25581487863178</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>161.8077752552643</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>283.0639612370504</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>66.57117760419095</v>
       </c>
     </row>
     <row r="42">
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>72.53143354412323</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>94.1769771207409</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>71.96559361603954</v>
@@ -25842,7 +25842,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>120.101078024038</v>
+        <v>316.3020949195871</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.49808311498444</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>92.61660939267048</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312533.9945655158</v>
+        <v>312533.9945655157</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>312533.9945655158</v>
+        <v>312533.9945655157</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430894.7750823197</v>
+        <v>430894.7750823199</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430894.7750823196</v>
+        <v>430894.7750823199</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>312533.9945655158</v>
+        <v>312533.9945655159</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>312533.9945655158</v>
+        <v>312533.9945655159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>312533.9945655158</v>
+        <v>312533.9945655159</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>312533.9945655159</v>
+        <v>312533.9945655158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>516381.4902713693</v>
+        <v>516381.4902713696</v>
       </c>
       <c r="C2" t="n">
-        <v>516381.4902713694</v>
+        <v>516381.4902713696</v>
       </c>
       <c r="D2" t="n">
-        <v>516381.4902713694</v>
+        <v>516381.4902713695</v>
       </c>
       <c r="E2" t="n">
+        <v>307066.8426620589</v>
+      </c>
+      <c r="F2" t="n">
         <v>307066.8426620588</v>
       </c>
-      <c r="F2" t="n">
-        <v>307066.8426620585</v>
-      </c>
       <c r="G2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="H2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620589</v>
       </c>
       <c r="I2" t="n">
-        <v>385385.0750974003</v>
+        <v>385385.0750974004</v>
       </c>
       <c r="J2" t="n">
-        <v>385385.0750974002</v>
+        <v>385385.0750974005</v>
       </c>
       <c r="K2" t="n">
-        <v>385385.0750974002</v>
+        <v>385385.0750974004</v>
       </c>
       <c r="L2" t="n">
-        <v>385385.0750974002</v>
+        <v>385385.0750974006</v>
       </c>
       <c r="M2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="N2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620589</v>
       </c>
       <c r="O2" t="n">
-        <v>307066.8426620585</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="P2" t="n">
         <v>307066.8426620588</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160778</v>
+        <v>79247.32527160773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>324702.6297467059</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568473</v>
       </c>
       <c r="F4" t="n">
         <v>22969.16992568474</v>
@@ -26435,31 +26435,31 @@
         <v>22969.16992568474</v>
       </c>
       <c r="H4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568475</v>
       </c>
       <c r="I4" t="n">
-        <v>67495.91160320502</v>
+        <v>67495.91160320507</v>
       </c>
       <c r="J4" t="n">
-        <v>67495.91160320501</v>
+        <v>67495.91160320505</v>
       </c>
       <c r="K4" t="n">
-        <v>67495.91160320498</v>
+        <v>67495.91160320508</v>
       </c>
       <c r="L4" t="n">
-        <v>67495.91160320499</v>
+        <v>67495.91160320505</v>
       </c>
       <c r="M4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568475</v>
       </c>
       <c r="N4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568475</v>
       </c>
       <c r="O4" t="n">
         <v>22969.16992568475</v>
       </c>
       <c r="P4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568476</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
         <v>43269.71441650125</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158051.2605246635</v>
+        <v>158029.5468831674</v>
       </c>
       <c r="C6" t="n">
-        <v>158051.2605246636</v>
+        <v>158029.5468831674</v>
       </c>
       <c r="D6" t="n">
-        <v>158051.2605246636</v>
+        <v>158029.5468831673</v>
       </c>
       <c r="E6" t="n">
-        <v>-315861.6976023807</v>
+        <v>-316464.8408205697</v>
       </c>
       <c r="F6" t="n">
-        <v>240827.9583198726</v>
+        <v>240224.8151016839</v>
       </c>
       <c r="G6" t="n">
-        <v>240827.9583198727</v>
+        <v>240224.815101684</v>
       </c>
       <c r="H6" t="n">
-        <v>240827.9583198727</v>
+        <v>240224.8151016841</v>
       </c>
       <c r="I6" t="n">
-        <v>203903.658580102</v>
+        <v>203518.0660075668</v>
       </c>
       <c r="J6" t="n">
-        <v>261459.8417605837</v>
+        <v>261074.2491880487</v>
       </c>
       <c r="K6" t="n">
-        <v>261459.8417605837</v>
+        <v>261074.2491880486</v>
       </c>
       <c r="L6" t="n">
-        <v>261459.8417605837</v>
+        <v>261074.2491880489</v>
       </c>
       <c r="M6" t="n">
-        <v>161580.6330482649</v>
+        <v>160977.4898300763</v>
       </c>
       <c r="N6" t="n">
-        <v>240827.9583198727</v>
+        <v>240224.815101684</v>
       </c>
       <c r="O6" t="n">
-        <v>240827.9583198725</v>
+        <v>240224.8151016839</v>
       </c>
       <c r="P6" t="n">
-        <v>240827.9583198728</v>
+        <v>240224.8151016839</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="F3" t="n">
         <v>494.2934179644261</v>
       </c>
-      <c r="F3" t="n">
-        <v>494.2934179644262</v>
-      </c>
       <c r="G3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="O3" t="n">
         <v>494.2934179644261</v>
@@ -26801,25 +26801,25 @@
         <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="H4" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
+        <v>750.8836385195243</v>
+      </c>
+      <c r="J4" t="n">
+        <v>750.8836385195243</v>
+      </c>
+      <c r="K4" t="n">
+        <v>750.8836385195243</v>
+      </c>
+      <c r="L4" t="n">
         <v>750.8836385195242</v>
-      </c>
-      <c r="J4" t="n">
-        <v>750.8836385195241</v>
-      </c>
-      <c r="K4" t="n">
-        <v>750.8836385195241</v>
-      </c>
-      <c r="L4" t="n">
-        <v>750.8836385195241</v>
       </c>
       <c r="M4" t="n">
         <v>534.442728698631</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208934</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777378</v>
+        <v>318.0018188777376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31767,16 +31767,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O11" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P11" t="n">
         <v>285.7487894273646</v>
@@ -31788,7 +31788,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T11" t="n">
         <v>8.698570601564924</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31870,7 +31870,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
         <v>0.06994718178741882</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H13" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31937,7 +31937,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
         <v>74.63830611262834</v>
@@ -31949,10 +31949,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
@@ -32004,16 +32004,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
         <v>285.7487894273646</v>
@@ -32025,10 +32025,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357952</v>
@@ -32074,7 +32074,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
@@ -32083,7 +32083,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
         <v>269.3899127906122</v>
@@ -32092,25 +32092,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M16" t="n">
         <v>139.7229738682065</v>
@@ -32174,22 +32174,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357952</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32320,7 +32320,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
         <v>269.3899127906122</v>
@@ -32329,25 +32329,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M19" t="n">
         <v>139.7229738682065</v>
@@ -32411,22 +32411,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,7 +32499,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
         <v>8.698570601564924</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32581,7 +32581,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741882</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H22" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,7 +32648,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
         <v>74.63830611262834</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,19 +32715,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
         <v>214.5854405596218</v>
@@ -32736,13 +32736,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32809,19 +32809,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,22 +32885,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,19 +32952,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
         <v>214.5854405596218</v>
@@ -32973,13 +32973,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33046,19 +33046,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,22 +33122,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,19 +33189,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
         <v>214.5854405596218</v>
@@ -33210,13 +33210,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33283,19 +33283,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,22 +33359,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,19 +33426,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
         <v>214.5854405596218</v>
@@ -33447,13 +33447,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33520,19 +33520,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33596,22 +33596,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33663,19 +33663,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
         <v>214.5854405596218</v>
@@ -33684,13 +33684,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33757,19 +33757,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33833,22 +33833,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33900,19 +33900,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q38" t="n">
         <v>214.5854405596218</v>
@@ -33921,13 +33921,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -33994,19 +33994,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34070,22 +34070,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R40" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491949</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34143,13 +34143,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O41" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q41" t="n">
         <v>214.5854405596218</v>
@@ -34161,10 +34161,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34231,10 +34231,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S42" t="n">
         <v>19.74842099131456</v>
@@ -34243,7 +34243,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I43" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34310,13 +34310,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R43" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
         <v>3.80849026956197</v>
@@ -34362,10 +34362,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
@@ -34380,13 +34380,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O44" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596218</v>
@@ -34398,10 +34398,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34468,10 +34468,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S45" t="n">
         <v>19.74842099131456</v>
@@ -34480,7 +34480,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I46" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
@@ -34547,13 +34547,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R46" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
         <v>3.80849026956197</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L11" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N11" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P11" t="n">
         <v>248.1734276171333</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163657</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392516</v>
@@ -35512,7 +35512,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.07039255557345</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M13" t="n">
         <v>534.4427286986308</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>309.9200365127527</v>
       </c>
       <c r="O13" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
         <v>248.1734276171333</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885258</v>
+        <v>321.2365787886769</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
-        <v>511.3862575357972</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392516</v>
@@ -35749,7 +35749,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136926</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622841</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>318.6049007742622</v>
+        <v>134.4266286690837</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N16" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>485.0064111831651</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297619</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784341</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977124</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885258</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>381.1713018496175</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>477.2559203594827</v>
       </c>
       <c r="O19" t="n">
-        <v>297.757175529531</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163654</v>
+        <v>321.2365787886769</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K22" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M22" t="n">
         <v>534.442728698631</v>
@@ -36296,10 +36296,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297618</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q22" t="n">
-        <v>179.3143442834503</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>534.9195310038328</v>
+        <v>520.6370604783569</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>275.268695478618</v>
+        <v>750.8836385195243</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>639.7932384704534</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>44.12755337977124</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>247.8473165317573</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
         <v>148.85927498986</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>298.1907316728659</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378324</v>
+        <v>288.4467871728115</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>657.616062763323</v>
+        <v>604.9706389020694</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>378.062272217937</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048236</v>
+        <v>421.9677860398027</v>
       </c>
       <c r="N28" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>288.44678717281</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>544.9124291713576</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>750.8836385195241</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>750.8836385195243</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>378.9926845679373</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885257</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911599</v>
+        <v>390.6826692209842</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427153</v>
+        <v>219.4819269776946</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>168.7377161819318</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>534.9195310038328</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
-        <v>297.414588889418</v>
+        <v>497.9465075023307</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="Q32" t="n">
-        <v>639.7932384704529</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J33" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>377.8989422856984</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>168.7377161819318</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011806</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742623</v>
       </c>
       <c r="M37" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>193.5539478643225</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163654</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782843</v>
+        <v>511.3862575357974</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>218.7306595248291</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M40" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>309.9200365127537</v>
       </c>
       <c r="O40" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297618</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q40" t="n">
         <v>202.9212659517818</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095598</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
@@ -37785,22 +37785,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M41" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O41" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R41" t="n">
         <v>89.79009951709452</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>344.9308271163657</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37873,16 +37873,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
         <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742623</v>
       </c>
       <c r="M43" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N43" t="n">
-        <v>266.8100296146326</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
@@ -38022,22 +38022,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M44" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O44" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R44" t="n">
         <v>89.79009951709452</v>
@@ -38095,7 +38095,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J45" t="n">
-        <v>344.9308271163657</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38107,19 +38107,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>520.2699592314481</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>218.7306595248293</v>
+        <v>304.8687587860142</v>
       </c>
       <c r="M46" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N46" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q46" t="n">
         <v>202.9212659517818</v>
